--- a/observations/Exoclock.xlsx
+++ b/observations/Exoclock.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -568,273 +568,273 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>David Arnot</t>
+          <t>Federico Armato</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rodolfo Artola</t>
+          <t>David Arnot</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Maurice Audejean</t>
+          <t>Rodolfo Artola</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cyrille Aumasson</t>
+          <t>Maurice Audejean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Paolo Bacci</t>
+          <t>Cyrille Aumasson</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Matthieu Bachschmidt</t>
+          <t>Paolo Bacci</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Giorgio Baj</t>
+          <t>Matthieu Bachschmidt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rafa Barbera</t>
+          <t>Giorgio Baj</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jean-Fabien Barrois</t>
+          <t>Rafa Barbera</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pierre Barroy</t>
+          <t>Jean-Fabien Barrois</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Marco Bastoni</t>
+          <t>Pierre Barroy</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ozguc Bayrak</t>
+          <t>Marco Bastoni</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vitória Bellecerie da Fonseca</t>
+          <t>Ozguc Bayrak</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Anis Ben Lassoued</t>
+          <t>Vitória Bellecerie da Fonseca</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Balazs Benei</t>
+          <t>Anis Ben Lassoued</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>David Bennett</t>
+          <t>Balazs Benei</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Paul Benni</t>
+          <t>David Bennett</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jean-Marc Beraud</t>
+          <t>Paul Benni</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Emanuele Bergamaschi</t>
+          <t>Jean-Marc Beraud</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Krzysztof Bernacki</t>
+          <t>Emanuele Bergamaschi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Guillaume Bernard</t>
+          <t>Krzysztof Bernacki</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EMMANUEL BESSON</t>
+          <t>Guillaume Bernard</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Liviano Betti</t>
+          <t>EMMANUEL BESSON</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lorenzo Betti</t>
+          <t>Liviano Betti</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Leon Bewersdorff</t>
+          <t>Lorenzo Betti</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Alfredo Biagini</t>
+          <t>Leon Bewersdorff</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Giacomo Bido</t>
+          <t>Alfredo Biagini</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -844,47 +844,47 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Guillaume Biesse</t>
+          <t>Giacomo Bido</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mario Billiani</t>
+          <t>Guillaume Biesse</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lorenzo Blasco</t>
+          <t>Mario Billiani</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vincent Boucher</t>
+          <t>Lorenzo Blasco</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rodrigo Boufleur</t>
+          <t>Vincent Boucher</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -894,67 +894,67 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dimitris Boulakos</t>
+          <t>Rodrigo Boufleur</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LES BRAND</t>
+          <t>Dimitris Boulakos</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Patrick Brandebourg</t>
+          <t>LES BRAND</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Marc Bretton</t>
+          <t>Patrick Brandebourg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Stephen M. Brincat</t>
+          <t>Marc Bretton</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Xavier Bros</t>
+          <t>Stephen M. Brincat</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Antonino Brosio</t>
+          <t>Xavier Bros</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -964,97 +964,97 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sebastien Brouillard</t>
+          <t>Antonino Brosio</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fontaine Bruno</t>
+          <t>Sebastien Brouillard</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Andrius Bruzas</t>
+          <t>Fontaine Bruno</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Attilio Bruzzone</t>
+          <t>Andrius Bruzas</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lorenzo Cabona</t>
+          <t>Attilio Bruzzone</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Giovanni Calapai</t>
+          <t>Lorenzo Cabona</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mauro Caló</t>
+          <t>Giovanni Calapai</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fran Campos</t>
+          <t>Mauro Caló</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Elio Canestrelli</t>
+          <t>Fran Campos</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Alex Capdevila Corral</t>
+          <t>Elio Canestrelli</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1064,27 +1064,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Stelvio Caponero</t>
+          <t>Alex Capdevila Corral</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Jose Carballada</t>
+          <t>Stelvio Caponero</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Albino Carbognani</t>
+          <t>Jose Carballada</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1094,97 +1094,97 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Florenci Carretero</t>
+          <t>Albino Carbognani</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Roland Casali</t>
+          <t>Florenci Carretero</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Giovanni Battista Casalnuovo</t>
+          <t>Roland Casali</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ricard Casas</t>
+          <t>Giovanni Battista Casalnuovo</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Rodrigo Castillo</t>
+          <t>Ricard Casas</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nicolas Castro-Morales</t>
+          <t>Rodrigo Castillo</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Matteo Cataneo</t>
+          <t>Nicolas Castro-Morales</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chia-Ming Chang</t>
+          <t>Matteo Cataneo</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lea Changeat</t>
+          <t>Chia-Ming Chang</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Massimiliano Chella</t>
+          <t>Lea Changeat</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1194,7 +1194,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Chen Chen</t>
+          <t>Massimiliano Chella</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1204,27 +1204,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Wen-Hsin Chen</t>
+          <t>Chen Chen</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>YingLin Chen</t>
+          <t>Wen-Hsin Chen</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Yungshun Chen</t>
+          <t>YingLin Chen</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1234,27 +1234,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Po-Jian Chiu</t>
+          <t>Yungshun Chen</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Riccardo Ciantini</t>
+          <t>Po-Jian Chiu</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jean-François Coliac</t>
+          <t>Riccardo Ciantini</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1264,237 +1264,237 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Jean-François Coliac</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dennis Conti</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Francesco Conti</t>
+          <t>Dennis Conti</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Giuseppe Conzo</t>
+          <t>Francesco Conti</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Luciano Correa</t>
+          <t>Giuseppe Conzo</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mercedes Correa</t>
+          <t>Luciano Correa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nicolas Crouzet</t>
+          <t>Mercedes Correa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Martin Crow</t>
+          <t>Nicolas Crouzet</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>168</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Andrea Damonte</t>
+          <t>Martin Crow</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Andras Dan</t>
+          <t>Andrea Damonte</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dominique DANIEL</t>
+          <t>Andras Dan</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Simon Dawes</t>
+          <t>Dominique DANIEL</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>137</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Leandro de Almeida</t>
+          <t>Simon Dawes</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>19</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Paul De Backer</t>
+          <t>Leandro de Almeida</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Francesco De Fabiani</t>
+          <t>Paul De Backer</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Alessandro de Melo</t>
+          <t>Francesco De Fabiani</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Pascal Delcroix</t>
+          <t>Alessandro de Melo</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Marc Deldem</t>
+          <t>Pascal Delcroix</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Dimitrios Deligeorgopoulos</t>
+          <t>Marc Deldem</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Yannic Delisle</t>
+          <t>Dimitrios Deligeorgopoulos</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Danilo Della Torres</t>
+          <t>Yannic Delisle</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fred Denjean</t>
+          <t>Danilo Della Torres</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Helena Dewick</t>
+          <t>Fred Denjean</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Francesco di Biase</t>
+          <t>Helena Dewick</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1504,7 +1504,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Filipe Dias</t>
+          <t>Francesco di Biase</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1514,37 +1514,37 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>samuel Diaz Lopez</t>
+          <t>Filipe Dias</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tommaso Dittadi</t>
+          <t>samuel Diaz Lopez</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Neil Dodd</t>
+          <t>Tommaso Dittadi</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Shamin Doman</t>
+          <t>Neil Dodd</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1554,27 +1554,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gemma Domènech</t>
+          <t>Shamin Doman</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Luis Miguel Domínguez</t>
+          <t>Gemma Domènech</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Esteban Donate</t>
+          <t>Luis Miguel Domínguez</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1584,7 +1584,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Paul Dooley</t>
+          <t>Esteban Donate</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1594,197 +1594,197 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Thomas Dooley</t>
+          <t>Paul Dooley</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Athanasios Douvris</t>
+          <t>Thomas Dooley</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sara Drapkin</t>
+          <t>Athanasios Douvris</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Sara Drapkin</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Franky Dubois</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Roger Dymock</t>
+          <t>Franky Dubois</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Billy Edwards</t>
+          <t>Roger Dymock</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Tõnis Eenmäe</t>
+          <t>Billy Edwards</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>James Eke</t>
+          <t>Tõnis Eenmäe</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Marcelo Emilio</t>
+          <t>James Eke</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jorge Estevez</t>
+          <t>Marcelo Emilio</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Phil Evans</t>
+          <t>Jorge Estevez</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Carmelo Falco</t>
+          <t>Phil Evans</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>117</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Pierre Farissier</t>
+          <t>Carmelo Falco</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Stephane Ferratfiat</t>
+          <t>Pierre Farissier</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Louw Ferreira</t>
+          <t>Stephane Ferratfiat</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>andrea ferrero</t>
+          <t>Louw Ferreira</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Antonio Ferretti</t>
+          <t>andrea ferrero</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Gianfranco Ferrini</t>
+          <t>Antonio Ferretti</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Jerzy Fiołka</t>
+          <t>Gianfranco Ferrini</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1794,77 +1794,77 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Gunther Fleerackers</t>
+          <t>Jerzy Fiołka</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Javier Flores Martín</t>
+          <t>Gunther Fleerackers</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Alvaro Fornas</t>
+          <t>Javier Flores Martín</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Gonzalo Fornas</t>
+          <t>Alvaro Fornas</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Gustavo Fornazari</t>
+          <t>Gonzalo Fornas</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sacha Foschino</t>
+          <t>Gustavo Fornazari</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Martin Fowler</t>
+          <t>Sacha Foschino</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Observatoire François-Xavier Bagnoud</t>
+          <t>Lara Fossi</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1874,17 +1874,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Tom Franklin</t>
+          <t>Martin Fowler</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ronny Freudenberg</t>
+          <t>Observatoire François-Xavier Bagnoud</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1894,27 +1894,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Efrem Frigeni</t>
+          <t>Tom Franklin</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Stephen Futcher</t>
+          <t>Ronny Freudenberg</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Michal Gabco</t>
+          <t>Thomas K. Friedli</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1924,127 +1924,127 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Davide Gabellini</t>
+          <t>Efrem Frigeni</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Trevor Gainey</t>
+          <t>Stephen Futcher</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pavol Gajdoš</t>
+          <t>Michal Gabco</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Jordi Gallego</t>
+          <t>Davide Gabellini</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Pierre Gamache</t>
+          <t>Trevor Gainey</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Esteban García N.</t>
+          <t>Pavol Gajdoš</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Alberto García Sánchez</t>
+          <t>Jordi Gallego</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Alexey Garmash</t>
+          <t>Pierre Gamache</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sauro Gaudenzi</t>
+          <t>Esteban García N.</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Michaël Gawronski</t>
+          <t>Alberto García Sánchez</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tobias Gesser</t>
+          <t>Alexey Garmash</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Antelm Ginard</t>
+          <t>Sauro Gaudenzi</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Camilla Gison</t>
+          <t>Michaël Gawronski</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2054,197 +2054,197 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ioannis Gkolias</t>
+          <t>Olivier GERTEIS</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Edward Gomez</t>
+          <t>Tobias Gesser</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Gustavo Gonçalves</t>
+          <t>Antelm Ginard</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Rafael González Farfán</t>
+          <t>Camilla Gison</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Josafat González Rodríguez</t>
+          <t>Ioannis Gkolias</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Jordi González-Edo</t>
+          <t>Edward Gomez</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ferran Grau Horta</t>
+          <t>Gustavo Gonçalves</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Gregory Grivas</t>
+          <t>Rafael González Farfán</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Guillaume GRUNTZ</t>
+          <t>David González Martínez</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Pere Guerra</t>
+          <t>Josafat González Rodríguez</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Fabio Guillelmon</t>
+          <t>Jordi González-Edo</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Bruno Guillet</t>
+          <t>Ferran Grau Horta</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Snaevarr Guðmundsson</t>
+          <t>Gregory Grivas</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BRIAN HALKETT</t>
+          <t>Guillaume GRUNTZ</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Carole Haswell</t>
+          <t>Pere Guerra</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hubert Hautecler</t>
+          <t>Fabio Guillelmon</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Tim Haymes</t>
+          <t>Bruno Guillet</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sean Heakes</t>
+          <t>Snaevarr Guðmundsson</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Chantal Hemmann</t>
+          <t>BRIAN HALKETT</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Juanjo Herrera</t>
+          <t>Carole Haswell</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2254,47 +2254,47 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kevin Hills</t>
+          <t>Hubert Hautecler</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Heidi Hodkinson</t>
+          <t>Tim Haymes</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Gerold Holtkamp</t>
+          <t>Sean Heakes</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Quintus Hoogendoorn</t>
+          <t>Chantal Hemmann</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>James Howe</t>
+          <t>Juanjo Herrera</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2304,47 +2304,47 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mu-Chen Hsieh</t>
+          <t>Kevin Hills</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Kuo-Pin Huang</t>
+          <t>Heidi Hodkinson</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sheng-Ting Huang</t>
+          <t>Gerold Holtkamp</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Davy Hubert</t>
+          <t>Quintus Hoogendoorn</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Fernando Huet</t>
+          <t>James Howe</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2354,7 +2354,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Thibaut HUMBERT</t>
+          <t>Mu-Chen Hsieh</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2364,17 +2364,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Francois Hurter</t>
+          <t>Kuo-Pin Huang</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Marco Iozzi</t>
+          <t>Sheng-Ting Huang</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2384,87 +2384,87 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Michael Irzyk</t>
+          <t>Davy Hubert</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Joan Josep Isach Cogollos</t>
+          <t>Fernando Huet</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Emran Ismail</t>
+          <t>Thibaut HUMBERT</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Adrian Jannetta</t>
+          <t>Francois Hurter</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kevin Johnson</t>
+          <t>Marco Iozzi</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Adrian Jones</t>
+          <t>Michael Irzyk</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>196</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Josh Jones</t>
+          <t>Joan Josep Isach Cogollos</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Yves Jongen</t>
+          <t>Emran Ismail</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1684</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Piotr Jóźwik-Wabik</t>
+          <t>Adrian Jannetta</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2474,47 +2474,47 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Aziz Ettahar Kaeouach</t>
+          <t>Kevin Johnson</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Alexandra Kalampokidou</t>
+          <t>Adrian Jones</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Wonseok Kang</t>
+          <t>Josh Jones</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Sanel Kartal</t>
+          <t>Yves Jongen</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Katrin Katzenmeier</t>
+          <t>Piotr Jóźwik-Wabik</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2524,47 +2524,47 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Harri Kiiskinen</t>
+          <t>Aziz Ettahar Kaeouach</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Taewoo Kim</t>
+          <t>Alexandra Kalampokidou</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Üllar Kivila</t>
+          <t>Wonseok Kang</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Anastasia Kokori</t>
+          <t>Sanel Kartal</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Ulrich Kolb</t>
+          <t>Katrin Katzenmeier</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2574,67 +2574,67 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Andre Kovacs</t>
+          <t>Harri Kiiskinen</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>165</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Jeff Kraehnke</t>
+          <t>Taewoo Kim</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Martin Krugmeister</t>
+          <t>Üllar Kivila</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Daniel Kustrin</t>
+          <t>Anastasia Kokori</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Didier Laloum</t>
+          <t>Ulrich Kolb</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Slawomir Lasota</t>
+          <t>Andre Kovacs</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Matheus Leal Castanheira</t>
+          <t>Jeff Kraehnke</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2644,77 +2644,77 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Allen Lee</t>
+          <t>Martin Krugmeister</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Richard Lee</t>
+          <t>Daniel Kustrin</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Didier LEFOULON</t>
+          <t>Didier Laloum</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Florent Legrele</t>
+          <t>Slawomir Lasota</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Hans Leipold</t>
+          <t>Matheus Leal Castanheira</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Georgios Lekkas</t>
+          <t>Allen Lee</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Florence Libotte</t>
+          <t>Richard Lee</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Trevor Lien</t>
+          <t>Didier LEFOULON</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2724,67 +2724,67 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Florent Legrele</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Fernando Linsalata</t>
+          <t>Hans Leipold</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Jack Lloyd-Walters</t>
+          <t>Georgios Lekkas</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Claudio Lopresti</t>
+          <t>Florence Libotte</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Stefano Lora</t>
+          <t>Trevor Lien</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Darryl Madison</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Andrzej Malcher</t>
+          <t>Fernando Linsalata</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2794,177 +2794,177 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Matthias Mallonn</t>
+          <t>Jack Lloyd-Walters</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Massimiliano Mannucci</t>
+          <t>Claudio Lopresti</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Alessandro Marchini</t>
+          <t>Stefano Lora</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Jean-Marc MARI</t>
+          <t>Darryl Madison</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Michele Tiziano Marini</t>
+          <t>Andrzej Malcher</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Antonio Marino</t>
+          <t>Matthias Mallonn</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>carlo marino</t>
+          <t>Massimiliano Mannucci</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Giuseppe Marino</t>
+          <t>Alessandro Marchini</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Jean-Claude MARIO</t>
+          <t>Jean-Marc MARI</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>elisabeth Maris</t>
+          <t>Michele Tiziano Marini</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Jean-Baptiste Marquette</t>
+          <t>Antonio Marino</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Bryan Martin</t>
+          <t>carlo marino</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Arturo Martín Saura</t>
+          <t>Giuseppe Marino</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Fernando Martínez</t>
+          <t>Jean-Claude MARIO</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Nataliia Maslennikova</t>
+          <t>elisabeth Maris</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Paolo Arcangelo Matassa</t>
+          <t>Jean-Baptiste Marquette</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>495</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Andy McGregor</t>
+          <t>Bryan Martin</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Marko Mesarč</t>
+          <t>Arturo Martín Saura</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2974,97 +2974,97 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Philip Michel</t>
+          <t>Fernando Martínez</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Marianna Michelagnoli</t>
+          <t>Nataliia Maslennikova</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Jacques Michelet</t>
+          <t>Paolo Arcangelo Matassa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>26</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Olga Michniewicz</t>
+          <t>Andy McGregor</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Johannes Mieglitz</t>
+          <t>Marko Mesarč</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Martin Mifsud</t>
+          <t>Philip Michel</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Charles Miller</t>
+          <t>Marianna Michelagnoli</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Mike Miller</t>
+          <t>Jacques Michelet</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Pete Mills</t>
+          <t>Olga Michniewicz</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Stephen Mills</t>
+          <t>Johannes Mieglitz</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3074,307 +3074,307 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Eric Miny</t>
+          <t>Martin Mifsud</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Salvador Miquel Romero</t>
+          <t>Charles Miller</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>David Molina</t>
+          <t>Mike Miller</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Thomas Mollier</t>
+          <t>Pete Mills</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Stéphane Montchaud</t>
+          <t>Stephen Mills</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Bruno Monteleone</t>
+          <t>Eric Miny</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Moreno Monticelli</t>
+          <t>Salvador Miquel Romero</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Nico Montigiani</t>
+          <t>David Molina</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Mario Morales-Aimar</t>
+          <t>Thomas Mollier</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Livia Moretti</t>
+          <t>Stéphane Montchaud</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Joanna Morgan</t>
+          <t>Bruno Monteleone</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Albert Morral</t>
+          <t>Moreno Monticelli</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Fabio Mortari</t>
+          <t>Nico Montigiani</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Gustavo Muler</t>
+          <t>Mario Morales-Aimar</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Michelle Müller</t>
+          <t>Livia Moretti</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Luca Naponiello</t>
+          <t>Joanna Morgan</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Alessandro Nastasi</t>
+          <t>Albert Morral</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Arushi Nath</t>
+          <t>Fabio Mortari</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Jean-Louis Naudin</t>
+          <t>Ahmed Moursi</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Ramon Naves</t>
+          <t>Gustavo Muler</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Rauno Neito</t>
+          <t>Michelle Müller</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Vanessa Neumann</t>
+          <t>Luca Naponiello</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Stephane Neveu</t>
+          <t>Alessandro Nastasi</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Michael Nezel</t>
+          <t>Arushi Nath</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ROZAND Nicolas</t>
+          <t>Jean-Louis Naudin</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Raphael Nicollerat</t>
+          <t>Ramon Naves</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Paul Norridge</t>
+          <t>Rauno Neito</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Yenal Ogmen</t>
+          <t>Vanessa Neumann</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Zlatko Orbanić</t>
+          <t>Stephane Neveu</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Emanuele Pace</t>
+          <t>Michael Nezel</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Federico Palaia</t>
+          <t>ROZAND Nicolas</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3384,17 +3384,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>christian PANTACCHINI</t>
+          <t>Raphael Nicollerat</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Georgia Pantelidou</t>
+          <t>Paul Norridge</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3404,67 +3404,67 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Pierros Papadeas</t>
+          <t>Yenal Ogmen</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Malcolm Park</t>
+          <t>Zlatko Orbanić</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Nikolaos Paschalis</t>
+          <t>Djaffar Ould Abdeslam</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Le Guen Patrice</t>
+          <t>Emanuele Pace</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>David Patterson</t>
+          <t>Federico Palaia</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Emanuele Pavoni</t>
+          <t>christian PANTACCHINI</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Cédric Pereira</t>
+          <t>Georgia Pantelidou</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3474,197 +3474,197 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Ivo Peretto</t>
+          <t>Pierros Papadeas</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Unai Perez</t>
+          <t>Malcolm Park</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Valère Perroud</t>
+          <t>Nikolaos Paschalis</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Steven Peterson</t>
+          <t>Le Guen Patrice</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Mark Phillips</t>
+          <t>David Patterson</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Jerry Philpot</t>
+          <t>Emanuele Pavoni</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Davide Pica</t>
+          <t>Cédric Pereira</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Pavel Pintr</t>
+          <t>Ivo Peretto</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Jean-Bernard Pioppa</t>
+          <t>Unai Perez</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Thomas Plunkett</t>
+          <t>Valère Perroud</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Adam Popowicz</t>
+          <t>Steven Peterson</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>THIAGO PRADO</t>
+          <t>Mark Phillips</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Aniket Prasad</t>
+          <t>Jerry Philpot</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Jeff Purcell</t>
+          <t>Davide Pica</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Alexander Putz</t>
+          <t>Pavel Pintr</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Chiara Emma Hilde PWS</t>
+          <t>Jean-Bernard Pioppa</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>David Quiles</t>
+          <t>Thomas Plunkett</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Nick Quinn</t>
+          <t>Adam Popowicz</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Manfred Raetz</t>
+          <t>THIAGO PRADO</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>239</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Enrique Rathmann</t>
+          <t>Aniket Prasad</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3674,297 +3674,297 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Francois Regembal</t>
+          <t>Jeff Purcell</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Esteban Reina</t>
+          <t>Alexander Putz</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Olivier Rethore</t>
+          <t>Chiara Emma Hilde PWS</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Lluis Ribe</t>
+          <t>David Quiles</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Keith Rickard</t>
+          <t>Nick Quinn</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Mark Roberts</t>
+          <t>Manfred Raetz</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Danilo Rocha</t>
+          <t>Enrique Rathmann</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Markus Rockenbauer</t>
+          <t>Francois Regembal</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Lluís Romero Ventura</t>
+          <t>Esteban Reina</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Robert Roth</t>
+          <t>Olivier Rethore</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Lionel Rousselot</t>
+          <t>Lluis Ribe</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Xesco Rubia</t>
+          <t>Davide Ricci</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Yicheng Rui</t>
+          <t>Keith Rickard</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Joaquin Ruiz Luque</t>
+          <t>Mark Roberts</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Nello Ruocco</t>
+          <t>Danilo Rocha</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Changhyun Ryu</t>
+          <t>Markus Rockenbauer</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Michel SAFIR</t>
+          <t>Lluís Romero Ventura</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Mark Salisbury</t>
+          <t>Robert Roth</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Thomas SALOMON</t>
+          <t>Lionel Rousselot</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Fabio Salvaggio</t>
+          <t>Xesco Rubia</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Alexandre Santos</t>
+          <t>Sonia J Rubie</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Christian Sartini</t>
+          <t>Yicheng Rui</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>John Savage</t>
+          <t>Joaquin Ruiz Luque</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Tiberiu Savin</t>
+          <t>Nello Ruocco</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Francesco Scaggiante</t>
+          <t>Changhyun Ryu</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Danilo Sedita</t>
+          <t>Michel SAFIR</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Marc Serrau</t>
+          <t>Mark Salisbury</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Ian Sharp</t>
+          <t>Thomas SALOMON</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Chrysostomos Sidiropoulos</t>
+          <t>Fabio Salvaggio</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Bergerson Silva</t>
+          <t>Alexandre Santos</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3974,177 +3974,177 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Nick Sioulas</t>
+          <t>Christian Sartini</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Vojtěch Školník</t>
+          <t>John Savage</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Deborah Smith</t>
+          <t>Tiberiu Savin</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Eric Smith</t>
+          <t>Francesco Scaggiante</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Martin Smith</t>
+          <t>Danilo Sedita</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Matthew Smith</t>
+          <t>Marc Serrau</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SAM Société Astronomique</t>
+          <t>Ian Sharp</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Adrian Sonka</t>
+          <t>Chrysostomos Sidiropoulos</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Marco Spiller</t>
+          <t>Bergerson Silva</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Thomas Sprecher</t>
+          <t>Nick Sioulas</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Nigel Stanbury</t>
+          <t>Vojtěch Školník</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Anthony David Starkie</t>
+          <t>Deborah Smith</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Marco Stefanini</t>
+          <t>Eric Smith</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Heiko Sterner</t>
+          <t>Martin Smith</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Dim Stouraitis</t>
+          <t>Matthew Smith</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MARIA STRATIGOU-PSARRA</t>
+          <t>SAM Société Astronomique</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Iakovos Strikis</t>
+          <t>Adrian Sonka</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Dominique Suys</t>
+          <t>Marco Spiller</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4154,257 +4154,257 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Magdalena Szkudlarek</t>
+          <t>Thomas Sprecher</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Mohammad Talafha</t>
+          <t>Nigel Stanbury</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Alexander Tarasenkov</t>
+          <t>Anthony David Starkie</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Gerard Tartalo</t>
+          <t>Marco Stefanini</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ASTEP Team</t>
+          <t>Heiko Sterner</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MUSCAT Team</t>
+          <t>Dim Stouraitis</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Emmanuel THIERS</t>
+          <t>MARIA STRATIGOU-PSARRA</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Geoffrey Thurston</t>
+          <t>Iakovos Strikis</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Corina Titescu</t>
+          <t>Dominique Suys</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Andrea Tomacelli</t>
+          <t>Magdalena Szkudlarek</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Alberto Tomatis</t>
+          <t>Mohammad Talafha</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>JeanLouis Tressol</t>
+          <t>Alexander Tarasenkov</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Bob Trevan</t>
+          <t>Gerard Tartalo</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Daniel Trueba Castillo</t>
+          <t>ASTEP Team</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Angelos Tsiaras</t>
+          <t>MUSCAT Team</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Milan Uhlar</t>
+          <t>Emmanuel THIERS</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Pierre Valeau</t>
+          <t>Geoffrey Thurston</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Willem van de Beek</t>
+          <t>Corina Titescu</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Mark van der Grijp</t>
+          <t>Andrea Tomacelli</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Katje van der Zalm</t>
+          <t>Alberto Tomatis</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Siegfried Vanaverbeke</t>
+          <t>JeanLouis Tressol</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Kaushkee Vats</t>
+          <t>Bob Trevan</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>jean paul vergne</t>
+          <t>Daniel Trueba Castillo</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Joost Verheyden</t>
+          <t>Angelos Tsiaras</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Jean-Pascal Vignes</t>
+          <t>Milan Uhlar</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Josep M. Vilalta</t>
+          <t>Pierre Valeau</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4414,7 +4414,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Kuldip Vora</t>
+          <t>Willem van de Beek</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4424,17 +4424,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Pieter Vuylsteke</t>
+          <t>Mark van der Grijp</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Patrick Wagner</t>
+          <t>Katje van der Zalm</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4444,37 +4444,37 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Didier Walliang</t>
+          <t>Siegfried Vanaverbeke</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Filip Walter</t>
+          <t>Kaushkee Vats</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Chiahui Wang</t>
+          <t>jean paul vergne</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Sam Weller</t>
+          <t>Joost Verheyden</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4484,147 +4484,147 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Bernhard Wenzel</t>
+          <t>Jean-Pascal Vignes</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Thomas Wocial</t>
+          <t>Josep M. Vilalta</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Rowan Wookey</t>
+          <t>Kuldip Vora</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Synchronous Working-Group</t>
+          <t>Pieter Vuylsteke</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>David Wright</t>
+          <t>Patrick Wagner</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BingSyun Wu</t>
+          <t>Didier Walliang</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Anaël Wünsche</t>
+          <t>Filip Walter</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>721</v>
+        <v>22</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Ting-Shuo Yeh</t>
+          <t>Chiahui Wang</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Richard Yorke</t>
+          <t>Sam Weller</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Grant Young</t>
+          <t>Bernhard Wenzel</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Thomas Wocial</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Riccardo Zancan</t>
+          <t>Rowan Wookey</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Jaume Zapata</t>
+          <t>Synchronous Working-Group</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Michal Zejmo</t>
+          <t>David Wright</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Michael Zhang</t>
+          <t>BingSyun Wu</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4634,10 +4634,110 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
+          <t>Anaël Wünsche</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Shun-Chia Yang</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Ting-Shuo Yeh</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Richard Yorke</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Grant Young</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Riccardo Zancan</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Jaume Zapata</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Michal Zejmo</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Michael Zhang</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
           <t>Massimiliano Zulian</t>
         </is>
       </c>
-      <c r="B422" t="n">
+      <c r="B432" t="n">
         <v>3</v>
       </c>
     </row>

--- a/observations/Exoclock.xlsx
+++ b/observations/Exoclock.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1104,7 +1104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Florenci Carretero</t>
+          <t>Elena Carloni</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1114,97 +1114,97 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Roland Casali</t>
+          <t>Alfonso Carreño Garceran</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Giovanni Battista Casalnuovo</t>
+          <t>Florenci Carretero</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ricard Casas</t>
+          <t>Roland Casali</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Rodrigo Castillo</t>
+          <t>Giovanni Battista Casalnuovo</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nicolas Castro-Morales</t>
+          <t>Ricard Casas</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Matteo Cataneo</t>
+          <t>Rodrigo Castillo</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Chia-Ming Chang</t>
+          <t>Nicolas Castro-Morales</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lea Changeat</t>
+          <t>Matteo Cataneo</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Massimiliano Chella</t>
+          <t>Chia-Ming Chang</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Chen Chen</t>
+          <t>Lea Changeat</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1214,17 +1214,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wen-Hsin Chen</t>
+          <t>Massimiliano Chella</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YingLin Chen</t>
+          <t>Chen Chen</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1234,87 +1234,87 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Yungshun Chen</t>
+          <t>Wen-Hsin Chen</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Po-Jian Chiu</t>
+          <t>YingLin Chen</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Riccardo Ciantini</t>
+          <t>Yungshun Chen</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jean-François Coliac</t>
+          <t>Po-Jian Chiu</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Riccardo Ciantini</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Dennis Conti</t>
+          <t>Jean-François Coliac</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Francesco Conti</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Giuseppe Conzo</t>
+          <t>Dennis Conti</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Luciano Correa</t>
+          <t>Francesco Conti</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1324,117 +1324,117 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mercedes Correa</t>
+          <t>Giuseppe Conzo</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nicolas Crouzet</t>
+          <t>Luciano Correa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Martin Crow</t>
+          <t>Mercedes Correa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Andrea Damonte</t>
+          <t>Nicolas Crouzet</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Andras Dan</t>
+          <t>Martin Crow</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>15</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dominique DANIEL</t>
+          <t>Andrea Damonte</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Simon Dawes</t>
+          <t>Andras Dan</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Leandro de Almeida</t>
+          <t>Dominique DANIEL</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Paul De Backer</t>
+          <t>Simon Dawes</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>13</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Francesco De Fabiani</t>
+          <t>Leandro de Almeida</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Alessandro de Melo</t>
+          <t>Paul De Backer</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pascal Delcroix</t>
+          <t>Francesco De Fabiani</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1444,57 +1444,57 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Marc Deldem</t>
+          <t>Alessandro de Melo</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dimitrios Deligeorgopoulos</t>
+          <t>Pascal Delcroix</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Yannic Delisle</t>
+          <t>Marc Deldem</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Danilo Della Torres</t>
+          <t>Dimitrios Deligeorgopoulos</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Fred Denjean</t>
+          <t>Yannic Delisle</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Helena Dewick</t>
+          <t>Danilo Della Torres</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1504,17 +1504,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Francesco di Biase</t>
+          <t>Fred Denjean</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Filipe Dias</t>
+          <t>Helena Dewick</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1524,77 +1524,77 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>samuel Diaz Lopez</t>
+          <t>Francesco di Biase</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Tommaso Dittadi</t>
+          <t>Filipe Dias</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Neil Dodd</t>
+          <t>samuel Diaz Lopez</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Shamin Doman</t>
+          <t>Tommaso Dittadi</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gemma Domènech</t>
+          <t>Neil Dodd</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Luis Miguel Domínguez</t>
+          <t>Shamin Doman</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Esteban Donate</t>
+          <t>Gemma Domènech</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Paul Dooley</t>
+          <t>Luis Miguel Domínguez</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1604,17 +1604,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Thomas Dooley</t>
+          <t>Esteban Donate</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Athanasios Douvris</t>
+          <t>Paul Dooley</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1624,7 +1624,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sara Drapkin</t>
+          <t>Thomas Dooley</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1634,287 +1634,287 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hao-Yuan Duan</t>
+          <t>Noah Dornhecker</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Franky Dubois</t>
+          <t>Athanasios Douvris</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Roger Dymock</t>
+          <t>Sara Drapkin</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Billy Edwards</t>
+          <t>Hao-Yuan Duan</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Tõnis Eenmäe</t>
+          <t>Franky Dubois</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>James Eke</t>
+          <t>Roger Dymock</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Marcelo Emilio</t>
+          <t>Billy Edwards</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Jorge Estevez</t>
+          <t>Tõnis Eenmäe</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Phil Evans</t>
+          <t>James Eke</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Carmelo Falco</t>
+          <t>Marcelo Emilio</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Pierre Farissier</t>
+          <t>Jorge Estevez</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Stephane Ferratfiat</t>
+          <t>Phil Evans</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Louw Ferreira</t>
+          <t>Carmelo Falco</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>andrea ferrero</t>
+          <t>Pierre Farissier</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Antonio Ferretti</t>
+          <t>Stephane Ferratfiat</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Gianfranco Ferrini</t>
+          <t>Louw Ferreira</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Jerzy Fiołka</t>
+          <t>andrea ferrero</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gunther Fleerackers</t>
+          <t>Antonio Ferretti</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Javier Flores Martín</t>
+          <t>Gianfranco Ferrini</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Alvaro Fornas</t>
+          <t>Jerzy Fiołka</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Gonzalo Fornas</t>
+          <t>Gunther Fleerackers</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Gustavo Fornazari</t>
+          <t>Javier Flores Martín</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sacha Foschino</t>
+          <t>Alvaro Fornas</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Lara Fossi</t>
+          <t>Gonzalo Fornas</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Martin Fowler</t>
+          <t>Gustavo Fornazari</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Observatoire François-Xavier Bagnoud</t>
+          <t>Sacha Foschino</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Tom Franklin</t>
+          <t>Lara Fossi</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Ronny Freudenberg</t>
+          <t>Martin Fowler</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Thomas K. Friedli</t>
+          <t>Observatoire François-Xavier Bagnoud</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1924,27 +1924,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Efrem Frigeni</t>
+          <t>Tom Franklin</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Stephen Futcher</t>
+          <t>Ronny Freudenberg</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Michal Gabco</t>
+          <t>Thomas K. Friedli</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1954,167 +1954,167 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Davide Gabellini</t>
+          <t>Efrem Frigeni</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Trevor Gainey</t>
+          <t>Stephen Futcher</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Pavol Gajdoš</t>
+          <t>Michal Gabco</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Jordi Gallego</t>
+          <t>Davide Gabellini</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pierre Gamache</t>
+          <t>Trevor Gainey</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Esteban García N.</t>
+          <t>Pavol Gajdoš</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Alberto García Sánchez</t>
+          <t>Jordi Gallego</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Alexey Garmash</t>
+          <t>Pierre Gamache</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sauro Gaudenzi</t>
+          <t>Esteban García N.</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Michaël Gawronski</t>
+          <t>Alberto García Sánchez</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Olivier GERTEIS</t>
+          <t>Alexey Garmash</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Tobias Gesser</t>
+          <t>Sauro Gaudenzi</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Antelm Ginard</t>
+          <t>Michaël Gawronski</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Camilla Gison</t>
+          <t>Olivier GERTEIS</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ioannis Gkolias</t>
+          <t>Tobias Gesser</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Edward Gomez</t>
+          <t>Antelm Ginard</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Gustavo Gonçalves</t>
+          <t>Camilla Gison</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2124,17 +2124,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Rafael González Farfán</t>
+          <t>Ioannis Gkolias</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>David González Martínez</t>
+          <t>Edward Gomez</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2144,7 +2144,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Josafat González Rodríguez</t>
+          <t>Pedro Gomez-Alvarez</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2154,97 +2154,97 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Jordi González-Edo</t>
+          <t>Gustavo Gonçalves</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ferran Grau Horta</t>
+          <t>Rafael González Farfán</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Gregory Grivas</t>
+          <t>David González Martínez</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Guillaume GRUNTZ</t>
+          <t>Josafat González Rodríguez</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Pere Guerra</t>
+          <t>Jordi González-Edo</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Fabio Guillelmon</t>
+          <t>Ferran Grau Horta</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Bruno Guillet</t>
+          <t>Gregory Grivas</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Snaevarr Guðmundsson</t>
+          <t>Guillaume GRUNTZ</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BRIAN HALKETT</t>
+          <t>Pere Guerra</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Carole Haswell</t>
+          <t>Fabio Guillelmon</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2254,87 +2254,87 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Hubert Hautecler</t>
+          <t>Bruno Guillet</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Tim Haymes</t>
+          <t>Snaevarr Guðmundsson</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sean Heakes</t>
+          <t>BRIAN HALKETT</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Chantal Hemmann</t>
+          <t>Carole Haswell</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Juanjo Herrera</t>
+          <t>Hubert Hautecler</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Kevin Hills</t>
+          <t>Tim Haymes</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Heidi Hodkinson</t>
+          <t>Sean Heakes</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Gerold Holtkamp</t>
+          <t>Chantal Hemmann</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Quintus Hoogendoorn</t>
+          <t>Juanjo Herrera</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2344,57 +2344,57 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>James Howe</t>
+          <t>Kevin Hills</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mu-Chen Hsieh</t>
+          <t>Heidi Hodkinson</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Kuo-Pin Huang</t>
+          <t>Gerold Holtkamp</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sheng-Ting Huang</t>
+          <t>Quintus Hoogendoorn</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Davy Hubert</t>
+          <t>James Howe</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Fernando Huet</t>
+          <t>Mu-Chen Hsieh</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2404,7 +2404,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Thibaut HUMBERT</t>
+          <t>Kuo-Pin Huang</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2414,107 +2414,107 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Francois Hurter</t>
+          <t>Sheng-Ting Huang</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Marco Iozzi</t>
+          <t>Davy Hubert</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Michael Irzyk</t>
+          <t>Fernando Huet</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Joan Josep Isach Cogollos</t>
+          <t>Thibaut HUMBERT</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Emran Ismail</t>
+          <t>Francois Hurter</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Adrian Jannetta</t>
+          <t>Marco Iozzi</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Kevin Johnson</t>
+          <t>Michael Irzyk</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Adrian Jones</t>
+          <t>Joan Josep Isach Cogollos</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>204</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Josh Jones</t>
+          <t>Emran Ismail</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Yves Jongen</t>
+          <t>Adrian Jannetta</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1770</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Piotr Jóźwik-Wabik</t>
+          <t>Jordi Jofre</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2524,47 +2524,47 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Aziz Ettahar Kaeouach</t>
+          <t>Kevin Johnson</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Alexandra Kalampokidou</t>
+          <t>Adrian Jones</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Wonseok Kang</t>
+          <t>Josh Jones</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Sanel Kartal</t>
+          <t>Yves Jongen</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Katrin Katzenmeier</t>
+          <t>Piotr Jóźwik-Wabik</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2574,47 +2574,47 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Harri Kiiskinen</t>
+          <t>Aziz Ettahar Kaeouach</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Taewoo Kim</t>
+          <t>Alexandra Kalampokidou</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Üllar Kivila</t>
+          <t>Wonseok Kang</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Anastasia Kokori</t>
+          <t>Sanel Kartal</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Ulrich Kolb</t>
+          <t>Katrin Katzenmeier</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2624,67 +2624,67 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Andre Kovacs</t>
+          <t>Harri Kiiskinen</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Jeff Kraehnke</t>
+          <t>Taewoo Kim</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Martin Krugmeister</t>
+          <t>Üllar Kivila</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Daniel Kustrin</t>
+          <t>Anastasia Kokori</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Didier Laloum</t>
+          <t>Ulrich Kolb</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Slawomir Lasota</t>
+          <t>Andre Kovacs</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Matheus Leal Castanheira</t>
+          <t>Jeff Kraehnke</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2694,77 +2694,77 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Allen Lee</t>
+          <t>Martin Krugmeister</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Richard Lee</t>
+          <t>Daniel Kustrin</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Didier LEFOULON</t>
+          <t>Didier Laloum</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Florent Legrele</t>
+          <t>Slawomir Lasota</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Hans Leipold</t>
+          <t>Matheus Leal Castanheira</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Georgios Lekkas</t>
+          <t>Allen Lee</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Florence Libotte</t>
+          <t>Richard Lee</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Trevor Lien</t>
+          <t>Didier LEFOULON</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2774,67 +2774,67 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Yen-Hsing Lin</t>
+          <t>Florent Legrele</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Fernando Linsalata</t>
+          <t>Hans Leipold</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Jack Lloyd-Walters</t>
+          <t>Georgios Lekkas</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Claudio Lopresti</t>
+          <t>Florence Libotte</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>156</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Stefano Lora</t>
+          <t>Trevor Lien</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Darryl Madison</t>
+          <t>Yen-Hsing Lin</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Andrzej Malcher</t>
+          <t>Fernando Linsalata</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2844,97 +2844,97 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Matthias Mallonn</t>
+          <t>Jack Lloyd-Walters</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Massimiliano Mannucci</t>
+          <t>Claudio Lopresti</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Alessandro Marchini</t>
+          <t>Stefano Lora</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Jean-Marc MARI</t>
+          <t>Giancarlo Madiai</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Michele Tiziano Marini</t>
+          <t>Darryl Madison</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Antonio Marino</t>
+          <t>Andrzej Malcher</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>carlo marino</t>
+          <t>Matthias Mallonn</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Giuseppe Marino</t>
+          <t>Massimiliano Mannucci</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jean-Claude MARIO</t>
+          <t>Alessandro Marchini</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>elisabeth Maris</t>
+          <t>Jean-Marc MARI</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2944,87 +2944,87 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Jean-Baptiste Marquette</t>
+          <t>Michele Tiziano Marini</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Bryan Martin</t>
+          <t>Antonio Marino</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Arturo Martín Saura</t>
+          <t>carlo marino</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Fernando Martínez</t>
+          <t>Giuseppe Marino</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Nataliia Maslennikova</t>
+          <t>Jean-Claude MARIO</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Paolo Arcangelo Matassa</t>
+          <t>elisabeth Maris</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Andy McGregor</t>
+          <t>Jean-Baptiste Marquette</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Marko Mesarč</t>
+          <t>Bryan Martin</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Philip Michel</t>
+          <t>Arturo Martín Saura</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3034,7 +3034,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Marianna Michelagnoli</t>
+          <t>Fernando Martínez</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3044,187 +3044,187 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Jacques Michelet</t>
+          <t>Nataliia Maslennikova</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Olga Michniewicz</t>
+          <t>Paolo Arcangelo Matassa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>517</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Johannes Mieglitz</t>
+          <t>Andy McGregor</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Martin Mifsud</t>
+          <t>Marko Mesarč</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Charles Miller</t>
+          <t>Philip Michel</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Mike Miller</t>
+          <t>Marianna Michelagnoli</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Pete Mills</t>
+          <t>Jacques Michelet</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Stephen Mills</t>
+          <t>Olga Michniewicz</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Eric Miny</t>
+          <t>Johannes Mieglitz</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Salvador Miquel Romero</t>
+          <t>Martin Mifsud</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>David Molina</t>
+          <t>Charles Miller</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Thomas Mollier</t>
+          <t>Mike Miller</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Stéphane Montchaud</t>
+          <t>Pete Mills</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Bruno Monteleone</t>
+          <t>Stephen Mills</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Moreno Monticelli</t>
+          <t>Eric Miny</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Nico Montigiani</t>
+          <t>Salvador Miquel Romero</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Mario Morales-Aimar</t>
+          <t>David Molina</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Livia Moretti</t>
+          <t>Thomas Mollier</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Joanna Morgan</t>
+          <t>Miguel Montargès</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3234,117 +3234,117 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Albert Morral</t>
+          <t>Stéphane Montchaud</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Fabio Mortari</t>
+          <t>Bruno Monteleone</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Ahmed Moursi</t>
+          <t>Moreno Monticelli</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Gustavo Muler</t>
+          <t>Nico Montigiani</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Michelle Müller</t>
+          <t>Mario Morales-Aimar</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Luca Naponiello</t>
+          <t>Livia Moretti</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Alessandro Nastasi</t>
+          <t>Joanna Morgan</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Arushi Nath</t>
+          <t>Albert Morral</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Jean-Louis Naudin</t>
+          <t>Fabio Mortari</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ramon Naves</t>
+          <t>Ahmed Moursi</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Rauno Neito</t>
+          <t>Gustavo Muler</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Vanessa Neumann</t>
+          <t>Michelle Müller</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3354,97 +3354,97 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Stephane Neveu</t>
+          <t>Luca Naponiello</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Michael Nezel</t>
+          <t>Alessandro Nastasi</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ROZAND Nicolas</t>
+          <t>Arushi Nath</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Raphael Nicollerat</t>
+          <t>Jean-Louis Naudin</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Paul Norridge</t>
+          <t>Ramon Naves</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Yenal Ogmen</t>
+          <t>Rauno Neito</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Zlatko Orbanić</t>
+          <t>Vanessa Neumann</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Djaffar Ould Abdeslam</t>
+          <t>Stephane Neveu</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Emanuele Pace</t>
+          <t>Michael Nezel</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Federico Palaia</t>
+          <t>ROZAND Nicolas</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3454,17 +3454,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>christian PANTACCHINI</t>
+          <t>Raphael Nicollerat</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Georgia Pantelidou</t>
+          <t>Paul Norridge</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3474,67 +3474,67 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Pierros Papadeas</t>
+          <t>Yenal Ogmen</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Malcolm Park</t>
+          <t>Zlatko Orbanić</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Nikolaos Paschalis</t>
+          <t>Djaffar Ould Abdeslam</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Le Guen Patrice</t>
+          <t>Emanuele Pace</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>David Patterson</t>
+          <t>Federico Palaia</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Emanuele Pavoni</t>
+          <t>christian PANTACCHINI</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Cédric Pereira</t>
+          <t>Georgia Pantelidou</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3544,197 +3544,197 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Ivo Peretto</t>
+          <t>Pierros Papadeas</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Unai Perez</t>
+          <t>Malcolm Park</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Valère Perroud</t>
+          <t>Nikolaos Paschalis</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Steven Peterson</t>
+          <t>Le Guen Patrice</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Mark Phillips</t>
+          <t>David Patterson</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Jerry Philpot</t>
+          <t>Emanuele Pavoni</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Davide Pica</t>
+          <t>Cédric Pereira</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Pavel Pintr</t>
+          <t>Ivo Peretto</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Jean-Bernard Pioppa</t>
+          <t>Unai Perez</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Thomas Plunkett</t>
+          <t>Valère Perroud</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Adam Popowicz</t>
+          <t>Steven Peterson</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>THIAGO PRADO</t>
+          <t>Mark Phillips</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Aniket Prasad</t>
+          <t>Jerry Philpot</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Jeff Purcell</t>
+          <t>Davide Pica</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Alexander Putz</t>
+          <t>Pavel Pintr</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Chiara Emma Hilde PWS</t>
+          <t>Jean-Bernard Pioppa</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>David Quiles</t>
+          <t>Thomas Plunkett</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Nick Quinn</t>
+          <t>Adam Popowicz</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Manfred Raetz</t>
+          <t>THIAGO PRADO</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>248</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Enrique Rathmann</t>
+          <t>Aniket Prasad</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3744,47 +3744,47 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Francois Regembal</t>
+          <t>Jeff Purcell</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Esteban Reina</t>
+          <t>Alexander Putz</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Olivier Rethore</t>
+          <t>Chiara Emma Hilde PWS</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Lluis Ribe</t>
+          <t>David Quiles</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Davide Ricci</t>
+          <t>Nick Quinn</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3794,277 +3794,277 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Keith Rickard</t>
+          <t>Manfred Raetz</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Mark Roberts</t>
+          <t>Enrique Rathmann</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Danilo Rocha</t>
+          <t>Francois Regembal</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Markus Rockenbauer</t>
+          <t>Esteban Reina</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Lluís Romero Ventura</t>
+          <t>Olivier Rethore</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Robert Roth</t>
+          <t>Lluis Ribe</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Lionel Rousselot</t>
+          <t>Davide Ricci</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Xesco Rubia</t>
+          <t>Keith Rickard</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Sonia J Rubie</t>
+          <t>Mark Roberts</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Yicheng Rui</t>
+          <t>Danilo Rocha</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Joaquin Ruiz Luque</t>
+          <t>Markus Rockenbauer</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Nello Ruocco</t>
+          <t>Lluís Romero Ventura</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Changhyun Ryu</t>
+          <t>Robert Roth</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Michel SAFIR</t>
+          <t>Lionel Rousselot</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Mark Salisbury</t>
+          <t>Xesco Rubia</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Thomas SALOMON</t>
+          <t>Sonia J Rubie</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Fabio Salvaggio</t>
+          <t>Yicheng Rui</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Alexandre Santos</t>
+          <t>Joaquin Ruiz Luque</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Christian Sartini</t>
+          <t>Nello Ruocco</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>John Savage</t>
+          <t>Changhyun Ryu</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Tiberiu Savin</t>
+          <t>Michel SAFIR</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Francesco Scaggiante</t>
+          <t>Mark Salisbury</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Danilo Sedita</t>
+          <t>Thomas SALOMON</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Marc Serrau</t>
+          <t>Fabio Salvaggio</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Ian Sharp</t>
+          <t>Alexandre Santos</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Chrysostomos Sidiropoulos</t>
+          <t>Christian Sartini</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Bergerson Silva</t>
+          <t>John Savage</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Nick Sioulas</t>
+          <t>Tiberiu Savin</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4074,47 +4074,47 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Vojtěch Školník</t>
+          <t>Francesco Scaggiante</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Deborah Smith</t>
+          <t>Danilo Sedita</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Eric Smith</t>
+          <t>Marc Serrau</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Martin Smith</t>
+          <t>Ian Sharp</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Matthew Smith</t>
+          <t>Chrysostomos Sidiropoulos</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4124,137 +4124,137 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SAM Société Astronomique</t>
+          <t>Bergerson Silva</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Adrian Sonka</t>
+          <t>Ivo Silvestri</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Marco Spiller</t>
+          <t>Nick Sioulas</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Thomas Sprecher</t>
+          <t>Vojtěch Školník</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Nigel Stanbury</t>
+          <t>Deborah Smith</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Anthony David Starkie</t>
+          <t>Eric Smith</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Marco Stefanini</t>
+          <t>Martin Smith</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Heiko Sterner</t>
+          <t>Matthew Smith</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Dim Stouraitis</t>
+          <t>SAM Société Astronomique</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>MARIA STRATIGOU-PSARRA</t>
+          <t>Adrian Sonka</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Iakovos Strikis</t>
+          <t>Marco Spiller</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Dominique Suys</t>
+          <t>Thomas Sprecher</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Magdalena Szkudlarek</t>
+          <t>Nigel Stanbury</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Mohammad Talafha</t>
+          <t>Anthony David Starkie</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4264,237 +4264,237 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Alexander Tarasenkov</t>
+          <t>Marco Stefanini</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Gerard Tartalo</t>
+          <t>Heiko Sterner</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ASTEP Team</t>
+          <t>Geoffrey Stone</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>MUSCAT Team</t>
+          <t>Dim Stouraitis</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Emmanuel THIERS</t>
+          <t>MARIA STRATIGOU-PSARRA</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Geoffrey Thurston</t>
+          <t>Iakovos Strikis</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Corina Titescu</t>
+          <t>Dominique Suys</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Andrea Tomacelli</t>
+          <t>Magdalena Szkudlarek</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Alberto Tomatis</t>
+          <t>Mohammad Talafha</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>JeanLouis Tressol</t>
+          <t>Alexander Tarasenkov</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Bob Trevan</t>
+          <t>Gerard Tartalo</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Daniel Trueba Castillo</t>
+          <t>ASTEP Team</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Angelos Tsiaras</t>
+          <t>MUSCAT Team</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Milan Uhlar</t>
+          <t>Emmanuel THIERS</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Pierre Valeau</t>
+          <t>Geoffrey Thurston</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Willem van de Beek</t>
+          <t>Corina Titescu</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Mark van der Grijp</t>
+          <t>Andrea Tomacelli</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Katje van der Zalm</t>
+          <t>Alberto Tomatis</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Siegfried Vanaverbeke</t>
+          <t>JeanLouis Tressol</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Kaushkee Vats</t>
+          <t>Bob Trevan</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>jean paul vergne</t>
+          <t>Daniel Trueba Castillo</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Joost Verheyden</t>
+          <t>Angelos Tsiaras</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Jean-Pascal Vignes</t>
+          <t>Milan Uhlar</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Josep M. Vilalta</t>
+          <t>Pierre Valeau</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4504,7 +4504,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Kuldip Vora</t>
+          <t>Willem van de Beek</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4514,17 +4514,17 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Pieter Vuylsteke</t>
+          <t>Mark van der Grijp</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Patrick Wagner</t>
+          <t>Katje van der Zalm</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4534,37 +4534,37 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Didier Walliang</t>
+          <t>Siegfried Vanaverbeke</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Filip Walter</t>
+          <t>Kaushkee Vats</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Chiahui Wang</t>
+          <t>jean paul vergne</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Sam Weller</t>
+          <t>Joost Verheyden</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4574,87 +4574,87 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Bernhard Wenzel</t>
+          <t>Jean-Pascal Vignes</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>33</v>
+        <v>252</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Thomas Wocial</t>
+          <t>Josep M. Vilalta</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Rowan Wookey</t>
+          <t>Kuldip Vora</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Synchronous Working-Group</t>
+          <t>Pieter Vuylsteke</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>David Wright</t>
+          <t>Patrick Wagner</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BingSyun Wu</t>
+          <t>Didier Walliang</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Anaël Wünsche</t>
+          <t>Filip Walter</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>727</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Shun-Chia Yang</t>
+          <t>Chiahui Wang</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Ting-Shuo Yeh</t>
+          <t>Sam Weller</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4664,80 +4664,170 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Richard Yorke</t>
+          <t>Bernhard Wenzel</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Grant Young</t>
+          <t>Thomas Wocial</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Lee YuHsien</t>
+          <t>Rowan Wookey</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Riccardo Zancan</t>
+          <t>Synchronous Working-Group</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Jaume Zapata</t>
+          <t>David Wright</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Michal Zejmo</t>
+          <t>BingSyun Wu</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Michael Zhang</t>
+          <t>Anaël Wünsche</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>732</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
+          <t>Shun-Chia Yang</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Ting-Shuo Yeh</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Richard Yorke</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Grant Young</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Lee YuHsien</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Riccardo Zancan</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Jaume Zapata</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Michal Zejmo</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Michael Zhang</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
           <t>Massimiliano Zulian</t>
         </is>
       </c>
-      <c r="B432" t="n">
+      <c r="B441" t="n">
         <v>3</v>
       </c>
     </row>
